--- a/code/old code/DCE_simulation.xlsx
+++ b/code/old code/DCE_simulation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/old code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA7A53-EF1D-6B4E-9AD0-25447E222D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F0079-81EB-3540-94EC-9ACCE1FBFD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="16960" xr2:uid="{1CA7DC11-16E4-344B-B25A-7D451109403A}"/>
+    <workbookView xWindow="2960" yWindow="860" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{1CA7DC11-16E4-344B-B25A-7D451109403A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="31">
   <si>
     <t>Estimate</t>
   </si>
@@ -120,6 +121,15 @@
   </si>
   <si>
     <t>td. Error</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                     </t>
   </si>
 </sst>
 </file>
@@ -510,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF974F-6AF7-5A44-BE87-B9A55460E3AF}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="H6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,4 +1541,1382 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78D3555-75C8-5D45-B094-59A38DC33718}">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1.0615140000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.3872999999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-16.619199999999999</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.067069</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.2824000000000001E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-24.9176</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1.1644859999999999</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>6.6640000000000005E-2</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-17.474299999999999</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-0.89416600000000002</v>
+      </c>
+      <c r="X2" s="1">
+        <v>4.2110000000000002E-2</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>-21.233899999999998</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.12765099999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.6694000000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-7.6464999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.0649999999999999E-14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.183504</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.0272999999999999E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-9.0517000000000003</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-0.17575399999999999</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.7498E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-10.0441</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-0.23627200000000001</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2.0934999999999999E-2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-11.286099999999999</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.34089000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1465999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-6.6235999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.5049999999999998E-11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.38544800000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6.1058000000000001E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-6.3128000000000002</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.7399999999999998E-10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-0.443442</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5.1769999999999997E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-8.5655999999999999</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-0.49399599999999999</v>
+      </c>
+      <c r="X4" s="1">
+        <v>6.0821E-2</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-8.1220999999999997</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>4.4409999999999996E-16</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.104644</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.8800999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2.1442999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.2009999999999997E-2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.24784900000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.9285999999999998E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-4.1805000000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.9079999999999999E-5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-0.36759199999999997</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>5.0699000000000001E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-7.2504999999999997</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.1539999999999998E-13</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="1">
+        <v>-0.49300500000000003</v>
+      </c>
+      <c r="X5" s="1">
+        <v>6.0982000000000001E-2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>-8.0844000000000005</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>6.6610000000000002E-16</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.42646000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.1067000000000001E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.3510000000000009</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.27557100000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4.5827E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6.0133000000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.8179999999999999E-9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.51871999999999996</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>5.2344000000000002E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>9.9099000000000004</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.37112800000000001</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.3017E-2</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>8.6274999999999995</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.31189499999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0451E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-29.8428</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.202851</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.2062E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-16.817799999999998</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-0.36691499999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.1238E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-32.648699999999998</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-0.24959999999999999</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.2958000000000001E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>-19.261600000000001</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.88389399999999996</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.13237699999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-6.6771000000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.4369999999999999E-11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-2.1048770000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.17024400000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-12.363899999999999</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-2.15774</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.18743399999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-11.512</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-1.884865</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.20597699999999999</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>-9.1508000000000003</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0615140000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.3686000000000006E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16.667999999999999</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.067069</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4.3047000000000002E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>24.788699999999999</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.1644859999999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>6.6584000000000004E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>17.489000000000001</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.89416600000000002</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4.1979000000000002E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>21.3003</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.120254</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7336000000000001E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-6.9367000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.0139999999999997E-12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.17197000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.9730999999999999E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-8.7156000000000002</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-0.15092800000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-8.7395999999999994</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-0.264237</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2.5932E-2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-10.1896</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.32113599999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.2061999999999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-6.1683000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.9040000000000001E-10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.36122100000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5.8442000000000001E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-6.1807999999999996</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6.3769999999999998E-10</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-0.380805</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4.8860000000000001E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-7.7937000000000003</v>
+      </c>
+      <c r="S14" s="1">
+        <v>6.4389999999999999E-15</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-0.55246600000000001</v>
+      </c>
+      <c r="X14" s="1">
+        <v>7.1986999999999995E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-7.6745000000000001</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1.665E-14</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-9.8580000000000001E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.6677999999999997E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-2.1118999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.23227100000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5.6115999999999999E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-4.1391</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3.4860000000000002E-5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-0.315668</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4.6792E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-6.7462</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.5170000000000001E-11</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-0.55135699999999999</v>
+      </c>
+      <c r="X15" s="1">
+        <v>7.2031999999999999E-2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>-7.6543000000000001</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1.9540000000000001E-14</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.40174700000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.3631999999999999E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.4908000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.8389999999999999E-14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.25824999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.3854999999999998E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.8887</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.8920000000000002E-9</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.44544899999999998</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5.1255000000000002E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>8.6907999999999994</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.41505500000000001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>5.1515999999999999E-2</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>8.0568000000000008</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>8.8819999999999992E-16</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.293821</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.0098000000000001E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-14.6191</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.19010099999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.3176999999999999E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-14.4268</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-0.31508700000000001</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1.9859999999999999E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-15.8652</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-0.279142</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.9088000000000001E-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>-14.623799999999999</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.83267400000000003</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9.8538000000000001E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-8.4502000000000006</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1.9725779999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.122017</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-16.166399999999999</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1.8529549999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.116193</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-15.9472</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-2.1079590000000001</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.18512600000000001</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>-11.3866</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-7380.3040000000001</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-5027.2689528999999</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-6021.2073097000002</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-4923.9872229000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-12476.65</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-8317.7661666999993</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-8317.7661666999993</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-8317.7661666999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14774.61</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10068.5379058</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" s="1">
+        <v>12056.414619499999</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W27" s="1">
+        <v>9861.9744458000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14824.34</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10115.434499999999</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="1">
+        <v>12103.3112</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" s="1">
+        <v>9908.8709999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.40847070000000002</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.39559870000000003</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.27610279999999998</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.40801569999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.40790959999999998</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.39475710000000003</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.27526129999999999</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.40717409999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9000</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6000</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="1">
+        <v>6000</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W31" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/old code/DCE_simulation.xlsx
+++ b/code/old code/DCE_simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/old code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F0079-81EB-3540-94EC-9ACCE1FBFD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14AF9D-1B48-1B44-91FD-662E46D5C51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="860" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{1CA7DC11-16E4-344B-B25A-7D451109403A}"/>
+    <workbookView xWindow="-220" yWindow="2720" windowWidth="28040" windowHeight="13500" activeTab="1" xr2:uid="{1CA7DC11-16E4-344B-B25A-7D451109403A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1548,12 +1548,14 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
